--- a/artfynd/A 44281-2024 artfynd.xlsx
+++ b/artfynd/A 44281-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,6 +954,273 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131124849</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8261</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>106456</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Granvivel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pissodes harcyniae</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Herbst, 1795)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Fäbodsberget, N, Upl</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>619246</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6662712</v>
+      </c>
+      <c r="S4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Heby</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Harbo</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>IBL-fälla</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Hans-Erik Wanntorp</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Hans-Erik Wanntorp</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Hans-Erik Wanntorp</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Joachim Strengbom</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131124909</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6282</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100524</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Skrovlig flatbagge</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Calitys scabra</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Thunberg, 1784)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Fäbodsberget, N, Upl</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>619246</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6662712</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Heby</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Harbo</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>produktionsskog</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Hans-Erik Wanntorp</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Hans-Erik Wanntorp</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Joachim Strengbom</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
